--- a/1. Atajos de Teclado.xlsx
+++ b/1. Atajos de Teclado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{17B41731-AAEC-4A3A-BFDE-8A6250A9523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98FDCB1-EBCA-4FCB-88B3-6EDFE2113B18}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{17B41731-AAEC-4A3A-BFDE-8A6250A9523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB72D23-36DD-49C7-A0AD-C317AE6E617A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bienvenida" sheetId="5" r:id="rId1"/>
@@ -244,10 +244,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -491,7 +490,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,13 +513,13 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,61 +557,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8382000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFFB979-433F-4F52-9616-4C1D36643FF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8382000" y="0"/>
-          <a:ext cx="1695450" cy="1695450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1120,8 +1064,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8451822" y="7304317"/>
-          <a:ext cx="12699182" cy="567181"/>
+          <a:off x="8451822" y="7611315"/>
+          <a:ext cx="12696984" cy="595756"/>
           <a:chOff x="231749" y="2962883"/>
           <a:chExt cx="12683095" cy="603885"/>
         </a:xfrm>
@@ -1547,8 +1491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8451822" y="6849024"/>
-          <a:ext cx="5222265" cy="576707"/>
+          <a:off x="8451822" y="7136972"/>
+          <a:ext cx="5222265" cy="605282"/>
           <a:chOff x="231749" y="2483595"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -1909,8 +1853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8451822" y="6393415"/>
-          <a:ext cx="5222265" cy="569086"/>
+          <a:off x="8451822" y="6652788"/>
+          <a:ext cx="5222265" cy="597661"/>
           <a:chOff x="231749" y="1994372"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -2276,8 +2220,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8451822" y="5913545"/>
-          <a:ext cx="5222265" cy="575102"/>
+          <a:off x="8451822" y="6153868"/>
+          <a:ext cx="5222265" cy="603677"/>
           <a:chOff x="231749" y="1490256"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -2618,7 +2562,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8451822" y="5431643"/>
+          <a:off x="8451822" y="5671966"/>
           <a:ext cx="5222265" cy="591946"/>
           <a:chOff x="231749" y="1003336"/>
           <a:chExt cx="5216550" cy="603885"/>
@@ -4620,8 +4564,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13606991" y="7352240"/>
-          <a:ext cx="299509" cy="238125"/>
+          <a:off x="13606991" y="7659238"/>
+          <a:ext cx="299509" cy="257175"/>
           <a:chOff x="13606991" y="7264398"/>
           <a:chExt cx="299509" cy="257175"/>
         </a:xfrm>
@@ -4736,8 +4680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13738225" y="7676090"/>
-          <a:ext cx="299509" cy="247650"/>
+          <a:off x="13738225" y="8002138"/>
+          <a:ext cx="299509" cy="257175"/>
           <a:chOff x="13738225" y="7607298"/>
           <a:chExt cx="299509" cy="257175"/>
         </a:xfrm>
@@ -5520,8 +5464,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16009408" y="7362824"/>
-          <a:ext cx="298451" cy="238125"/>
+          <a:off x="16009408" y="7669822"/>
+          <a:ext cx="296253" cy="257175"/>
           <a:chOff x="13606991" y="7264398"/>
           <a:chExt cx="299509" cy="257175"/>
         </a:xfrm>
@@ -5829,8 +5773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16094075" y="7693024"/>
-          <a:ext cx="298451" cy="238125"/>
+          <a:off x="16094075" y="8019072"/>
+          <a:ext cx="296253" cy="257175"/>
           <a:chOff x="13606991" y="7264398"/>
           <a:chExt cx="299509" cy="257175"/>
         </a:xfrm>
@@ -6952,7 +6896,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6980,8 +6924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12334875" y="523875"/>
-          <a:ext cx="3977640" cy="4520565"/>
+          <a:off x="12328663" y="523875"/>
+          <a:ext cx="3977640" cy="4585998"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5695950" cy="4619625"/>
         </a:xfrm>
@@ -7419,8 +7363,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12557097" y="3380014"/>
-          <a:ext cx="5210835" cy="597660"/>
+          <a:off x="12550885" y="3435922"/>
+          <a:ext cx="5210835" cy="607185"/>
           <a:chOff x="231749" y="2962883"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -7780,8 +7724,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12557097" y="2915192"/>
-          <a:ext cx="5210835" cy="590040"/>
+          <a:off x="12550885" y="2961575"/>
+          <a:ext cx="5210835" cy="599565"/>
           <a:chOff x="231749" y="2483595"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -8142,7 +8086,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12557097" y="2431013"/>
+          <a:off x="12550885" y="2477396"/>
           <a:ext cx="2726718" cy="612900"/>
           <a:chOff x="231749" y="1994372"/>
           <a:chExt cx="2711478" cy="603885"/>
@@ -8484,8 +8428,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12557097" y="1941618"/>
-          <a:ext cx="5210835" cy="607185"/>
+          <a:off x="12550885" y="1978476"/>
+          <a:ext cx="5210835" cy="616710"/>
           <a:chOff x="231749" y="1490256"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -8845,8 +8789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12557097" y="1488292"/>
-          <a:ext cx="5210835" cy="565275"/>
+          <a:off x="12550885" y="1494504"/>
+          <a:ext cx="5210835" cy="595921"/>
           <a:chOff x="231749" y="1003336"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -10108,8 +10052,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2786228" y="3999198"/>
-          <a:ext cx="4115998" cy="1582453"/>
+          <a:off x="2784986" y="4064631"/>
+          <a:ext cx="4107715" cy="1582453"/>
           <a:chOff x="6961372" y="3865848"/>
           <a:chExt cx="4076138" cy="1582453"/>
         </a:xfrm>
@@ -10993,60 +10937,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>994410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagen 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7B350D-70BE-414B-89DF-486575FF81BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1000125" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11538,8 +11432,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9794847" y="5913664"/>
-          <a:ext cx="5197500" cy="607185"/>
+          <a:off x="9793605" y="6156344"/>
+          <a:ext cx="5197914" cy="633276"/>
           <a:chOff x="231749" y="2962883"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -11899,8 +11793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9764367" y="4883061"/>
-          <a:ext cx="5224164" cy="578611"/>
+          <a:off x="9763125" y="5102550"/>
+          <a:ext cx="5224578" cy="588136"/>
           <a:chOff x="231749" y="2483595"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -12261,8 +12155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9756747" y="4374113"/>
-          <a:ext cx="5231790" cy="563370"/>
+          <a:off x="9755505" y="4565027"/>
+          <a:ext cx="5232204" cy="591945"/>
           <a:chOff x="231749" y="1994372"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -12622,8 +12516,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9756747" y="3903768"/>
-          <a:ext cx="5231790" cy="567180"/>
+          <a:off x="9755505" y="4066107"/>
+          <a:ext cx="5232204" cy="595755"/>
           <a:chOff x="231749" y="1490256"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -12964,8 +12858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9756747" y="3440917"/>
-          <a:ext cx="5231790" cy="584325"/>
+          <a:off x="9755505" y="3584206"/>
+          <a:ext cx="5232204" cy="612900"/>
           <a:chOff x="231749" y="1003336"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -15330,8 +15224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9771987" y="5363119"/>
-          <a:ext cx="5216550" cy="595755"/>
+          <a:off x="9770745" y="5592133"/>
+          <a:ext cx="5216964" cy="609421"/>
           <a:chOff x="231749" y="2962883"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -18265,60 +18159,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Imagen 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A9495F-CB0A-492C-BED8-C9CB0B9BBA4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1000125" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18810,7 +18654,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5032347" y="3017943"/>
+          <a:off x="5032347" y="3103668"/>
           <a:ext cx="5216550" cy="597660"/>
           <a:chOff x="231749" y="1490256"/>
           <a:chExt cx="5216550" cy="603885"/>
@@ -19152,8 +18996,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5032347" y="2555092"/>
-          <a:ext cx="5216550" cy="578610"/>
+          <a:off x="5032347" y="2621767"/>
+          <a:ext cx="5216550" cy="597660"/>
           <a:chOff x="231749" y="1003336"/>
           <a:chExt cx="5216550" cy="603885"/>
         </a:xfrm>
@@ -19949,8 +19793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1190443" y="3631433"/>
-          <a:ext cx="1562282" cy="1437168"/>
+          <a:off x="1190443" y="3717158"/>
+          <a:ext cx="1562282" cy="1503843"/>
           <a:chOff x="9648643" y="3620606"/>
           <a:chExt cx="1562282" cy="1503843"/>
         </a:xfrm>
@@ -20463,63 +20307,13 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65245C6-C348-4211-B41A-82E46953CA81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="0"/>
-          <a:ext cx="1000125" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20557,7 +20351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -20663,7 +20457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20805,7 +20599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20816,28 +20610,27 @@
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="130.5703125" style="12" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="90">
+    <row r="2" spans="1:1" ht="90.75">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27">
+    <row r="3" spans="1:1" ht="26.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20845,11 +20638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B11:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
@@ -20857,7 +20648,7 @@
     <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:5" ht="19.899999999999999">
+    <row r="11" spans="2:5" ht="19.5">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -20867,19 +20658,19 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="19.899999999999999">
+    <row r="14" spans="2:5" ht="19.5">
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.899999999999999">
+    <row r="15" spans="2:5" ht="19.5">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="18">
+    <row r="16" spans="2:5" ht="18.75">
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -20894,7 +20685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18">
+    <row r="21" spans="2:5" ht="18.75">
       <c r="C21" s="14" t="s">
         <v>10</v>
       </c>
@@ -20938,7 +20729,7 @@
       <selection activeCell="I24" sqref="I24:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -20950,156 +20741,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="87" customHeight="1"/>
-    <row r="3" spans="3:9" ht="18">
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="3:9" ht="18.75">
+      <c r="C3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="15" customHeight="1">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="15" customHeight="1">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="15" customHeight="1">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="15" customHeight="1">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="15" customHeight="1">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -21198,13 +20989,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D9:R40"/>
+  <dimension ref="D9:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" style="7" customWidth="1"/>
@@ -21242,142 +21031,139 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="4:14">
-      <c r="D11" s="19">
+      <c r="D11" s="25">
         <v>1172</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>43148</v>
       </c>
     </row>
     <row r="12" spans="4:14">
-      <c r="D12" s="19">
+      <c r="D12" s="25">
         <v>958</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="24">
         <v>0.22</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>43148</v>
       </c>
     </row>
     <row r="13" spans="4:14">
-      <c r="D13" s="19">
+      <c r="D13" s="25">
         <v>864</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="24">
         <v>0.37</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>43112</v>
       </c>
     </row>
     <row r="14" spans="4:14">
-      <c r="D14" s="19">
+      <c r="D14" s="25">
         <v>1351</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="24">
         <v>0.23</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>43145</v>
       </c>
     </row>
     <row r="15" spans="4:14">
-      <c r="D15" s="19">
+      <c r="D15" s="25">
         <v>886</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="24">
         <v>0.38</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>43125</v>
       </c>
     </row>
     <row r="16" spans="4:14">
-      <c r="D16" s="19">
+      <c r="D16" s="25">
         <v>812</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="24">
         <v>0.3</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>43125</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="19">
+      <c r="D17" s="25">
         <v>1316</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="24">
         <v>0.27</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>44984</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="19">
+      <c r="D18" s="25">
         <v>1250</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="24">
         <v>0.31</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>43120</v>
       </c>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="19">
+      <c r="D19" s="25">
         <v>1021</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="24">
         <v>0.31</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>43115</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="19">
+      <c r="D20" s="25">
         <v>778</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="24">
         <v>0.34</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>43114</v>
       </c>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="19">
+      <c r="D21" s="25">
         <v>1034</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="24">
         <v>0.15</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>43147</v>
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="19">
+      <c r="D22" s="25">
         <v>1418</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="24">
         <v>0.21</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>43129</v>
       </c>
     </row>
     <row r="25" spans="4:6">
-      <c r="F25" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45713</v>
-      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="4:6" ht="52.5" customHeight="1">
       <c r="D26" s="15" t="s">
@@ -21388,102 +21174,11 @@
     <row r="28" spans="4:6">
       <c r="F28"/>
     </row>
-    <row r="29" spans="4:6" ht="16.149999999999999">
-      <c r="D29">
-        <v>1172</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1172</v>
-      </c>
+    <row r="29" spans="4:6" ht="16.5">
+      <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="4:6">
-      <c r="D30">
-        <v>958</v>
-      </c>
-      <c r="E30">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31">
-        <v>864</v>
-      </c>
-      <c r="E31">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32">
-        <v>1351</v>
-      </c>
-      <c r="E32">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="33" spans="4:18">
-      <c r="D33">
-        <v>886</v>
-      </c>
-      <c r="E33">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="34" spans="4:18">
-      <c r="D34">
-        <v>812</v>
-      </c>
-      <c r="E34">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="35" spans="4:18">
-      <c r="D35">
-        <v>1316</v>
-      </c>
-      <c r="E35">
-        <v>1316</v>
-      </c>
+    <row r="35" spans="18:18">
       <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="4:18">
-      <c r="D36">
-        <v>1250</v>
-      </c>
-      <c r="E36">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="37" spans="4:18">
-      <c r="D37">
-        <v>1021</v>
-      </c>
-      <c r="E37">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="38" spans="4:18">
-      <c r="D38">
-        <v>778</v>
-      </c>
-      <c r="E38">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="39" spans="4:18">
-      <c r="D39">
-        <v>1034</v>
-      </c>
-      <c r="E39">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="40" spans="4:18">
-      <c r="D40">
-        <v>1418</v>
-      </c>
-      <c r="E40">
-        <v>1418</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21498,20 +21193,20 @@
   <dimension ref="C9:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:3" ht="86.45">
+    <row r="9" spans="3:3" ht="85.5">
       <c r="C9" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="3:3" ht="57.6">
+    <row r="12" spans="3:3" ht="57">
       <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
